--- a/Notebooks/X5_v2_add_bonuses/res.xlsx
+++ b/Notebooks/X5_v2_add_bonuses/res.xlsx
@@ -461,18 +461,18 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CatBoost Regressor w/ Imputer + Select Columns Transformer</t>
+          <t>CatBoost Regressor w/ Replace Nullable Types Transformer + Imputer + Select Columns Transformer</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.574502012778497</v>
+        <v>1.574501396155558</v>
       </c>
       <c r="D2" t="n">
-        <v>0.002092581198158305</v>
+        <v>0.002131743424093329</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>{'Imputer': {'categorical_impute_strategy': 'most_frequent', 'numeric_impute_strategy': 'mean', 'categorical_fill_value': None, 'numeric_fill_value': None}, 'Select Columns Transformer': {'columns': [0, 4, 6, 7, 8, 9, 10, 12, 14, 17, 19, 21, 23, 25]}, 'CatBoost Regressor': {'n_estimators': 10, 'eta': 0.03, 'max_depth': 6, 'bootstrap_type': None, 'silent': False, 'allow_writing_files': False, 'n_jobs': -1}}</t>
+          <t>{'Imputer': {'categorical_impute_strategy': 'most_frequent', 'numeric_impute_strategy': 'mean', 'boolean_impute_strategy': 'most_frequent', 'categorical_fill_value': None, 'numeric_fill_value': None, 'boolean_fill_value': None}, 'Select Columns Transformer': {'columns': [0, 4, 6, 7, 8, 9, 10, 12, 14, 17, 19, 21, 23, 25]}, 'CatBoost Regressor': {'n_estimators': 10, 'eta': 0.03, 'max_depth': 6, 'bootstrap_type': None, 'silent': False, 'allow_writing_files': False, 'n_jobs': -1}}</t>
         </is>
       </c>
     </row>
@@ -482,18 +482,18 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Elastic Net Regressor w/ Imputer + Standard Scaler + Select Columns Transformer</t>
+          <t>Mean Baseline Regression Pipeline</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.5745036283849</v>
+        <v>1.574534961201054</v>
       </c>
       <c r="D3" t="n">
-        <v>0.001989972717416395</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>{'Imputer': {'categorical_impute_strategy': 'most_frequent', 'numeric_impute_strategy': 'median', 'categorical_fill_value': None, 'numeric_fill_value': None}, 'Select Columns Transformer': {'columns': [0, 4, 6, 7, 8, 9, 10, 12, 14, 17, 19, 21, 23, 25]}, 'Elastic Net Regressor': {'alpha': 0.29753460654447234, 'l1_ratio': 0.056712977317443194, 'max_iter': 1000, 'normalize': False}}</t>
+          <t>{'Baseline Regressor': {'strategy': 'mean'}}</t>
         </is>
       </c>
     </row>
@@ -503,18 +503,18 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Extra Trees Regressor w/ Imputer + Select Columns Transformer</t>
+          <t>Elastic Net Regressor w/ Replace Nullable Types Transformer + Imputer + Standard Scaler + Select Columns Transformer</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.574513539981597</v>
+        <v>1.574534961201054</v>
       </c>
       <c r="D4" t="n">
-        <v>0.001360479124615846</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>{'Imputer': {'categorical_impute_strategy': 'most_frequent', 'numeric_impute_strategy': 'median', 'categorical_fill_value': None, 'numeric_fill_value': None}, 'Select Columns Transformer': {'columns': [0, 4, 6, 7, 8, 9, 10, 12, 14, 17, 19, 21, 23, 25]}, 'Extra Trees Regressor': {'n_estimators': 561, 'max_features': 'sqrt', 'max_depth': 4, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_jobs': -1}}</t>
+          <t>{'Imputer': {'categorical_impute_strategy': 'most_frequent', 'numeric_impute_strategy': 'median', 'boolean_impute_strategy': 'most_frequent', 'categorical_fill_value': None, 'numeric_fill_value': None, 'boolean_fill_value': None}, 'Select Columns Transformer': {'columns': [0, 4, 6, 7, 8, 9, 10, 12, 14, 17, 19, 21, 23, 25]}, 'Elastic Net Regressor': {'alpha': 0.27265629458011326, 'l1_ratio': 0.47766511732135, 'max_iter': 1000, 'normalize': False}}</t>
         </is>
       </c>
     </row>
@@ -524,18 +524,18 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mean Baseline Regression Pipeline</t>
+          <t>Extra Trees Regressor w/ Replace Nullable Types Transformer + Imputer + Select Columns Transformer</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.574534961201054</v>
+        <v>1.574593133704129</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>-0.003694583131418885</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>{'Baseline Regressor': {'strategy': 'mean'}}</t>
+          <t>{'Imputer': {'categorical_impute_strategy': 'most_frequent', 'numeric_impute_strategy': 'median', 'boolean_impute_strategy': 'most_frequent', 'categorical_fill_value': None, 'numeric_fill_value': None, 'boolean_fill_value': None}, 'Select Columns Transformer': {'columns': [0, 4, 6, 7, 8, 9, 10, 12, 14, 17, 19, 21, 23, 25]}, 'Extra Trees Regressor': {'n_estimators': 547, 'max_features': 'auto', 'max_depth': 5, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_jobs': -1}}</t>
         </is>
       </c>
     </row>

--- a/Notebooks/X5_v2_add_bonuses/res.xlsx
+++ b/Notebooks/X5_v2_add_bonuses/res.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,14 +465,14 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.574501396155558</v>
+        <v>1.574503587492216</v>
       </c>
       <c r="D2" t="n">
-        <v>0.002131743424093329</v>
+        <v>0.001992569845134317</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>{'Imputer': {'categorical_impute_strategy': 'most_frequent', 'numeric_impute_strategy': 'mean', 'boolean_impute_strategy': 'most_frequent', 'categorical_fill_value': None, 'numeric_fill_value': None, 'boolean_fill_value': None}, 'Select Columns Transformer': {'columns': [0, 4, 6, 7, 8, 9, 10, 12, 14, 17, 19, 21, 23, 25]}, 'CatBoost Regressor': {'n_estimators': 10, 'eta': 0.03, 'max_depth': 6, 'bootstrap_type': None, 'silent': False, 'allow_writing_files': False, 'n_jobs': -1}}</t>
+          <t>{'Imputer': {'categorical_impute_strategy': 'most_frequent', 'numeric_impute_strategy': 'mean', 'boolean_impute_strategy': 'most_frequent', 'categorical_fill_value': None, 'numeric_fill_value': None, 'boolean_fill_value': None}, 'Select Columns Transformer': {'columns': [0, 4, 6, 7, 8, 9, 10, 14, 17, 18, 19, 21, 23, 25, 26]}, 'CatBoost Regressor': {'n_estimators': 10, 'eta': 0.03, 'max_depth': 6, 'bootstrap_type': None, 'silent': False, 'allow_writing_files': False, 'n_jobs': -1}}</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>{'Imputer': {'categorical_impute_strategy': 'most_frequent', 'numeric_impute_strategy': 'median', 'boolean_impute_strategy': 'most_frequent', 'categorical_fill_value': None, 'numeric_fill_value': None, 'boolean_fill_value': None}, 'Select Columns Transformer': {'columns': [0, 4, 6, 7, 8, 9, 10, 12, 14, 17, 19, 21, 23, 25]}, 'Elastic Net Regressor': {'alpha': 0.27265629458011326, 'l1_ratio': 0.47766511732135, 'max_iter': 1000, 'normalize': False}}</t>
+          <t>{'Imputer': {'categorical_impute_strategy': 'most_frequent', 'numeric_impute_strategy': 'median', 'boolean_impute_strategy': 'most_frequent', 'categorical_fill_value': None, 'numeric_fill_value': None, 'boolean_fill_value': None}, 'Select Columns Transformer': {'columns': [0, 4, 6, 7, 8, 9, 10, 14, 17, 18, 19, 21, 23, 25, 26]}, 'Elastic Net Regressor': {'alpha': 0.27265629458011326, 'l1_ratio': 0.47766511732135, 'max_iter': 1000, 'normalize': False}}</t>
         </is>
       </c>
     </row>
@@ -528,14 +528,35 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.574593133704129</v>
+        <v>1.574605255690053</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.003694583131418885</v>
+        <v>-0.004464460347441396</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>{'Imputer': {'categorical_impute_strategy': 'most_frequent', 'numeric_impute_strategy': 'median', 'boolean_impute_strategy': 'most_frequent', 'categorical_fill_value': None, 'numeric_fill_value': None, 'boolean_fill_value': None}, 'Select Columns Transformer': {'columns': [0, 4, 6, 7, 8, 9, 10, 12, 14, 17, 19, 21, 23, 25]}, 'Extra Trees Regressor': {'n_estimators': 547, 'max_features': 'auto', 'max_depth': 5, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_jobs': -1}}</t>
+          <t>{'Imputer': {'categorical_impute_strategy': 'most_frequent', 'numeric_impute_strategy': 'median', 'boolean_impute_strategy': 'most_frequent', 'categorical_fill_value': None, 'numeric_fill_value': None, 'boolean_fill_value': None}, 'Select Columns Transformer': {'columns': [0, 4, 6, 7, 8, 9, 10, 14, 17, 18, 19, 21, 23, 25, 26]}, 'Extra Trees Regressor': {'n_estimators': 547, 'max_features': 'auto', 'max_depth': 5, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_jobs': -1}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Elastic Net Regressor w/ Replace Nullable Types Transformer + Imputer + Standard Scaler + RF Regressor Select From Model</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1.574685597475376</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.009567032681684772</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>{'Imputer': {'categorical_impute_strategy': 'most_frequent', 'numeric_impute_strategy': 'mean', 'boolean_impute_strategy': 'most_frequent', 'categorical_fill_value': None, 'numeric_fill_value': None, 'boolean_fill_value': None}, 'RF Regressor Select From Model': {'number_features': None, 'n_estimators': 10, 'max_depth': None, 'percent_features': 0.5, 'threshold': 'median', 'n_jobs': -1}, 'Elastic Net Regressor': {'alpha': 0.0001, 'l1_ratio': 0.15, 'max_iter': 1000, 'normalize': False}}</t>
         </is>
       </c>
     </row>
